--- a/prototypeTestData.xlsx
+++ b/prototypeTestData.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\TH_EDUCATION_PI11B215\SD16\PrototypeWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\TH_EDUCATION_PI11B215\SD16\SD16-04_PI11B215-21_スウエディソン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5394AEF0-4E92-4F8A-991B-AFECF8D35698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D48A4B-66EC-4AB7-B32E-E0ED24A18093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{3C64E7FE-9BB3-4363-A5EA-B14CB9276DF2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3C64E7FE-9BB3-4363-A5EA-B14CB9276DF2}"/>
   </bookViews>
   <sheets>
     <sheet name="AccountData" sheetId="1" r:id="rId1"/>
     <sheet name="WorkItemData" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,13 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Account</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edison</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,12 +100,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,15 +424,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5D941C-BC05-496D-AAE6-E19C401406AE}">
-  <dimension ref="A1:B1"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="2" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -436,6 +445,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -445,9 +459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE229B0-BF81-4CA4-9641-D3A06EDBB5DD}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -456,4 +471,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EBBCAA-A2C4-4746-924D-0F3FA0A3A33F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>